--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="2" r:id="rId1"/>
@@ -72,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0&quot; ms&quot;"/>
+    <numFmt numFmtId="164" formatCode="0.0&quot; ms&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -108,13 +108,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1170,7 +1170,2481 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sk-SK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
+              <a:t>2ms delay 16 nodes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sk-SK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test2!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s2-s4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>test2!$C$7:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0" ms"</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15134.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15139.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15134.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>102.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>103.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4615.8650000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B157-4C2C-823C-09648590036A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test2!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s9-13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>test2!$E$7:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0" ms"</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15119.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15123.51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95.56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15142.59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4606.7620000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B157-4C2C-823C-09648590036A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test2!$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s2-s4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>test2!$K$7:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0" ms"</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14420</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B157-4C2C-823C-09648590036A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test2!$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s9-13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>test2!$M$7:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0" ms"</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B157-4C2C-823C-09648590036A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="325511952"/>
+        <c:axId val="325501784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="325511952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325501784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="325501784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0&quot; ms&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325511952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sk-SK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sk-SK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sk-SK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
+              <a:t>26ms delay</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sk-SK" baseline="0"/>
+              <a:t> 16 nodes</a:t>
+            </a:r>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sk-SK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test2!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s2-s4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>test2!$D$7:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0" ms"</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>13148.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1209.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1167.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14184.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13771.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13591.26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13422.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13534.37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13416.73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13334.33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11078.029999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F47-43BB-9FCD-53689FEFE772}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test2!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s9-13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>test2!$F$7:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0" ms"</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>13506.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1064.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1045.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1058.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1072.5899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1062.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1060.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1113.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1083.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1061.58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2312.8150000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5F47-43BB-9FCD-53689FEFE772}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test2!$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s2-s4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>test2!$L$7:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0" ms"</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>13800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13980</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5F47-43BB-9FCD-53689FEFE772}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test2!$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s9-13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>test2!$N$7:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0" ms"</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14220</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5F47-43BB-9FCD-53689FEFE772}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="325509328"/>
+        <c:axId val="325510312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="325509328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325510312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="325510312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0&quot; ms&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325509328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sk-SK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sk-SK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sk-SK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
+              <a:t>2ms</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sk-SK" baseline="0"/>
+              <a:t> delay 32 nodes</a:t>
+            </a:r>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sk-SK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test2!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s2-s4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>test2!$G$7:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0" ms"</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16662.919999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1601.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1593.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16567.490000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16527.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16558.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16557.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16556.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16662.490000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16559.97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13584.771000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-53D1-44F9-B931-E1036A8E2FE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test2!$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s9-13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>test2!$I$7:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0" ms"</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15202.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15170.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15170.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15176.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15167.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15173.59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15177.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15168.56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15171.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15172.67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15175.197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-53D1-44F9-B931-E1036A8E2FE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test2!$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s2-s4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>test2!$L$7:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0" ms"</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>13800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13980</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-53D1-44F9-B931-E1036A8E2FE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test2!$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s9-13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>test2!$N$7:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0" ms"</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14220</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-53D1-44F9-B931-E1036A8E2FE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="507752088"/>
+        <c:axId val="507752416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="507752088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507752416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="507752416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0&quot; ms&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507752088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sk-SK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sk-SK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sk-SK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
+              <a:t>26ms delay 32 nodes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sk-SK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test2!$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s2-s4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>test2!$H$7:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0" ms"</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16505.009999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16502.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16503.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16500.810000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16705.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16665.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16660.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16659.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14175.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4911.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15178.953</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23CC-46EF-B401-8DFD8099C5AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test2!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s9-13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>test2!$J$7:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0" ms"</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16662.919999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1601.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1593.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1597.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16527.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16558.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16557.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16556.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16662.490000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16559.97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12087.774000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-23CC-46EF-B401-8DFD8099C5AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test2!$P$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s2-s4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>test2!$P$7:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0" ms"</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-23CC-46EF-B401-8DFD8099C5AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test2!$R$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s9-13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>test2!$R$7:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0" ms"</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>21600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-23CC-46EF-B401-8DFD8099C5AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="459272880"/>
+        <c:axId val="459273864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="459272880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459273864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="459273864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0&quot; ms&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459272880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sk-SK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sk-SK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1726,6 +4200,2070 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1759,6 +6297,155 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graf 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F55FE00-D1B2-4799-B891-69D0AFDE2899}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1338262</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graf 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CAE7176-5DE4-451E-8D1E-906DD464B91A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graf 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27D0306C-C027-4098-8CE5-7874F35C8BB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graf 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C32CD29-F437-4822-A505-CD4044BAD099}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2032,7 +6719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BFFB51-E441-4EFF-880D-76F05951A208}">
   <dimension ref="B1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
@@ -2049,30 +6736,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="5"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2080,16 +6767,16 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>279</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>41</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>285</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>82</v>
       </c>
     </row>
@@ -2097,16 +6784,16 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>46.9</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>42</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>77</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>82</v>
       </c>
     </row>
@@ -2114,16 +6801,16 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>46.1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>40</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>75</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>81</v>
       </c>
     </row>
@@ -2131,16 +6818,16 @@
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>47</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>44</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>76.2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>84</v>
       </c>
     </row>
@@ -2148,16 +6835,16 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>46.8</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>45</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>75.5</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>80</v>
       </c>
     </row>
@@ -2165,16 +6852,16 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>46.9</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>44</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>76.599999999999994</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>80</v>
       </c>
     </row>
@@ -2182,16 +6869,16 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>46.1</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>44</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>75.900000000000006</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>82</v>
       </c>
     </row>
@@ -2199,16 +6886,16 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>46.8</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>43</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>76.5</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>77</v>
       </c>
     </row>
@@ -2216,16 +6903,16 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>46.5</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>41</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>76.8</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>79</v>
       </c>
     </row>
@@ -2233,16 +6920,16 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>46.4</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>43</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>76.8</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>81</v>
       </c>
     </row>
@@ -2250,16 +6937,16 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>46.3</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>45</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>76.900000000000006</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>76</v>
       </c>
     </row>
@@ -2267,16 +6954,16 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>47</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>43</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>75.400000000000006</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>84</v>
       </c>
     </row>
@@ -2284,16 +6971,16 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>46.2</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>44</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>76</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>77</v>
       </c>
     </row>
@@ -2301,16 +6988,16 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>46.7</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>39</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>75.099999999999994</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>76</v>
       </c>
     </row>
@@ -2318,16 +7005,16 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>46.3</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>42</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>75.8</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>83</v>
       </c>
     </row>
@@ -2335,16 +7022,16 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>46.9</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>45</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>75.8</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>84</v>
       </c>
     </row>
@@ -2352,16 +7039,16 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>46.3</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>43</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>76.2</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>77</v>
       </c>
     </row>
@@ -2369,16 +7056,16 @@
       <c r="B20">
         <v>18</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>46.3</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>40</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>75.7</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>79</v>
       </c>
     </row>
@@ -2386,16 +7073,16 @@
       <c r="B21">
         <v>19</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>46.5</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>44</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>76.5</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>80</v>
       </c>
     </row>
@@ -2403,16 +7090,16 @@
       <c r="B22">
         <v>20</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>46.5</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>39</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>75.5</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>83</v>
       </c>
     </row>
@@ -2420,16 +7107,16 @@
       <c r="B23">
         <v>21</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>47</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>43</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>76.3</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>82</v>
       </c>
     </row>
@@ -2437,16 +7124,16 @@
       <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>46.9</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>45</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>76.400000000000006</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>76</v>
       </c>
     </row>
@@ -2454,16 +7141,16 @@
       <c r="B25">
         <v>23</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>46.1</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>45</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>75.400000000000006</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>80</v>
       </c>
     </row>
@@ -2471,16 +7158,16 @@
       <c r="B26">
         <v>24</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>46.1</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>41</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>75.900000000000006</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>80</v>
       </c>
     </row>
@@ -2488,16 +7175,16 @@
       <c r="B27">
         <v>25</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>46</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>42</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>75.8</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>82</v>
       </c>
     </row>
@@ -2505,16 +7192,16 @@
       <c r="B28">
         <v>26</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>46.7</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>42</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>76.8</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>82</v>
       </c>
     </row>
@@ -2522,16 +7209,16 @@
       <c r="B29">
         <v>27</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>46.4</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>40</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>73.400000000000006</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>84</v>
       </c>
     </row>
@@ -2539,16 +7226,16 @@
       <c r="B30">
         <v>28</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>45.9</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>44</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>76.8</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>78</v>
       </c>
     </row>
@@ -2556,16 +7243,16 @@
       <c r="B31">
         <v>29</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>46.2</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>42</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>76.400000000000006</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>76</v>
       </c>
     </row>
@@ -2573,16 +7260,16 @@
       <c r="B32">
         <v>30</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>45.6</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>40</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>75.599999999999994</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <v>76</v>
       </c>
     </row>
@@ -2590,16 +7277,16 @@
       <c r="B33">
         <v>31</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>45.6</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>43</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>76</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <v>77</v>
       </c>
     </row>
@@ -2607,16 +7294,16 @@
       <c r="B34">
         <v>32</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>46.3</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>40</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>76.2</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <v>77</v>
       </c>
     </row>
@@ -2624,16 +7311,16 @@
       <c r="B35">
         <v>33</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>46.3</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>43</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>75.3</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <v>79</v>
       </c>
     </row>
@@ -2641,16 +7328,16 @@
       <c r="B36">
         <v>34</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>46.8</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>41</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>76.400000000000006</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <v>75</v>
       </c>
     </row>
@@ -2658,16 +7345,16 @@
       <c r="B37">
         <v>35</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>46.5</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>41</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>75.3</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <v>81</v>
       </c>
     </row>
@@ -2675,16 +7362,16 @@
       <c r="B38">
         <v>36</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>46.2</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>45</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>77.400000000000006</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <v>82</v>
       </c>
     </row>
@@ -2692,16 +7379,16 @@
       <c r="B39">
         <v>37</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>46.4</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>45</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>75.8</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <v>81</v>
       </c>
     </row>
@@ -2709,16 +7396,16 @@
       <c r="B40">
         <v>38</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>47.2</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>39</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>75.7</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <v>82</v>
       </c>
     </row>
@@ -2726,16 +7413,16 @@
       <c r="B41">
         <v>39</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>46.3</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>45</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <v>76.599999999999994</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="3">
         <v>81</v>
       </c>
     </row>
@@ -2743,16 +7430,16 @@
       <c r="B42">
         <v>40</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>47.1</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>40</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3">
         <v>75.900000000000006</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="3">
         <v>80</v>
       </c>
     </row>
@@ -2760,16 +7447,16 @@
       <c r="B43">
         <v>41</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>46.8</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>40</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="3">
         <v>74.900000000000006</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="3">
         <v>81</v>
       </c>
     </row>
@@ -2777,16 +7464,16 @@
       <c r="B44">
         <v>42</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>53.7</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>41</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <v>75.599999999999994</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="3">
         <v>76</v>
       </c>
     </row>
@@ -2794,16 +7481,16 @@
       <c r="B45">
         <v>43</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>47.8</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>43</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <v>76</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="3">
         <v>76</v>
       </c>
     </row>
@@ -2811,16 +7498,16 @@
       <c r="B46">
         <v>44</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>46.7</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <v>39</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="3">
         <v>76.2</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="3">
         <v>77</v>
       </c>
     </row>
@@ -2828,16 +7515,16 @@
       <c r="B47">
         <v>45</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>46.4</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3">
         <v>45</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <v>76.2</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="3">
         <v>76</v>
       </c>
     </row>
@@ -2845,16 +7532,16 @@
       <c r="B48">
         <v>46</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>46.5</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3">
         <v>42</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <v>75.900000000000006</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="3">
         <v>76</v>
       </c>
     </row>
@@ -2862,16 +7549,16 @@
       <c r="B49">
         <v>47</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>46.2</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="3">
         <v>42</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <v>75.7</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="3">
         <v>83</v>
       </c>
     </row>
@@ -2879,16 +7566,16 @@
       <c r="B50">
         <v>48</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>46.2</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <v>45</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <v>75.7</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="3">
         <v>84</v>
       </c>
     </row>
@@ -2896,16 +7583,16 @@
       <c r="B51">
         <v>49</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>46.8</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="3">
         <v>43</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="3">
         <v>75.8</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="3">
         <v>76</v>
       </c>
     </row>
@@ -2913,16 +7600,16 @@
       <c r="B52">
         <v>50</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>46.5</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="3">
         <v>40</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <v>75.400000000000006</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="3">
         <v>78</v>
       </c>
     </row>
@@ -2942,8 +7629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2966,48 +7653,48 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
       <c r="O4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3116,567 +7803,567 @@
       </c>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>15134.84</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>13148.13</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>15119.66</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>13506.48</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>16662.919999999998</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>16505.009999999998</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>15202.54</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>16662.919999999998</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>14400</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>13800</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>14400</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>14200</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>20400</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <v>20600</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>20200</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="3">
         <v>21600</v>
       </c>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>117.58</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>1209.28</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>100.76</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>1064.47</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>1601.42</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>16502.5</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>15170.96</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>1601.42</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>14200</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>14000</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>14200</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>14200</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>21200</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <v>20400</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>20600</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="3">
         <v>21600</v>
       </c>
     </row>
     <row r="9" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>116.69</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>1167.73</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>102.94</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>1045.77</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>1593.44</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>16503.32</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>15170.06</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>1593.44</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>14400</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>14000</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>14200</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>14200</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>19800</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>20800</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>19800</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="3">
         <v>21400</v>
       </c>
     </row>
     <row r="10" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>104.89</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>14184.39</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>96.67</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>1058.0999999999999</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>16567.490000000002</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>16500.810000000001</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>15176.99</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>1597.52</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>14400</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>13800</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>14000</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>14200</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>20000</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <v>20400</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>20400</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="3">
         <v>21600</v>
       </c>
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>15139.44</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>13771.95</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>94.92</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>1072.5899999999999</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>16527.84</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>16705.57</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>15167.37</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>16527.84</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>14200</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>14600</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>14200</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>14000</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>20000</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <v>20800</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>20200</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="3">
         <v>21800</v>
       </c>
     </row>
     <row r="12" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>103.62</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>13591.26</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>96.54</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>1062.04</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>16558.12</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>16665.43</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>15173.59</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>16558.12</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>14600</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>14000</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>14400</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>14200</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>19600</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>22400</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>20600</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="3">
         <v>21800</v>
       </c>
     </row>
     <row r="13" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>101.4</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>13422.13</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>15123.51</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>1060.68</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>16557.64</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>16660.54</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>15177.25</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>16557.64</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>14400</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>14000</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>14200</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>14200</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <v>20200</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <v>21600</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <v>20200</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="3">
         <v>22000</v>
       </c>
     </row>
     <row r="14" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>15134.31</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>13534.37</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>95.56</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>1113.07</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>16556.38</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>16659.43</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>15168.56</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>16556.38</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>14600</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <v>13800</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <v>14200</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>14400</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <v>19600</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="3">
         <v>22200</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <v>20200</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="3">
         <v>21800</v>
       </c>
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>102.08</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>13416.73</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>94.47</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>1083.3699999999999</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>16662.490000000002</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>14175.85</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>15171.98</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>16662.490000000002</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>14600</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>13600</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <v>14200</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>14400</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <v>22000</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <v>22200</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <v>20400</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="3">
         <v>21600</v>
       </c>
     </row>
     <row r="16" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>103.8</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>13334.33</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>15142.59</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>1061.58</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>16559.97</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>4911.07</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>15172.67</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>16559.97</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>14400</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>14200</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <v>14000</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <v>14200</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <v>21800</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <v>21800</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <v>20400</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="3">
         <v>21800</v>
       </c>
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <f>AVERAGE(C7:C16)</f>
         <v>4615.8650000000007</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <f t="shared" ref="D17:R17" si="0">AVERAGE(D7:D16)</f>
         <v>11078.029999999999</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <f t="shared" si="0"/>
         <v>4606.7620000000006</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <f t="shared" si="0"/>
         <v>2312.8150000000001</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <f t="shared" si="0"/>
         <v>13584.771000000002</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <f t="shared" si="0"/>
         <v>15178.953</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <f t="shared" si="0"/>
         <v>15175.197</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <f t="shared" si="0"/>
         <v>12087.774000000001</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <f t="shared" si="0"/>
         <v>14420</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <f t="shared" si="0"/>
         <v>13980</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <f t="shared" si="0"/>
         <v>14200</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <f t="shared" si="0"/>
         <v>14220</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <f t="shared" si="0"/>
         <v>20460</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="3">
         <f t="shared" si="0"/>
         <v>21320</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="3">
         <f t="shared" si="0"/>
         <v>20300</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="3">
         <f t="shared" si="0"/>
         <v>21700</v>
       </c>
@@ -3690,5 +8377,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -20,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
-  <si>
-    <t>s2-s4</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
   <si>
     <t>2ms</t>
   </si>
   <si>
     <t>26ms</t>
-  </si>
-  <si>
-    <t>s9-13</t>
   </si>
   <si>
     <t>SDN -convergence time</t>
@@ -65,6 +59,18 @@
   </si>
   <si>
     <t>Legacy -convergence time</t>
+  </si>
+  <si>
+    <t>SDN s2-s4</t>
+  </si>
+  <si>
+    <t>SDN s9-13</t>
+  </si>
+  <si>
+    <t>OSPF s2-s4</t>
+  </si>
+  <si>
+    <t>OSPF s9-13</t>
   </si>
 </sst>
 </file>
@@ -203,7 +209,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sk-SK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1021,7 +1027,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sk-SK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="475840576"/>
@@ -1080,7 +1086,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sk-SK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="475839264"/>
@@ -1122,7 +1128,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sk-SK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1159,7 +1165,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="sk-SK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1235,7 +1241,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sk-SK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1254,7 +1260,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>s2-s4</c:v>
+                  <c:v>SDN s2-s4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1329,7 +1335,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>s9-13</c:v>
+                  <c:v>SDN s9-13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1404,7 +1410,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>s2-s4</c:v>
+                  <c:v>OSPF s2-s4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1479,7 +1485,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>s9-13</c:v>
+                  <c:v>OSPF s9-13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1597,7 +1603,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sk-SK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="325501784"/>
@@ -1656,7 +1662,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sk-SK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="325511952"/>
@@ -1698,7 +1704,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sk-SK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1735,7 +1741,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="sk-SK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1816,7 +1822,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sk-SK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1835,7 +1841,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>s2-s4</c:v>
+                  <c:v>SDN s2-s4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1910,7 +1916,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>s9-13</c:v>
+                  <c:v>SDN s9-13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1985,7 +1991,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>s2-s4</c:v>
+                  <c:v>OSPF s2-s4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2060,7 +2066,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>s9-13</c:v>
+                  <c:v>OSPF s9-13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2178,7 +2184,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sk-SK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="325510312"/>
@@ -2237,7 +2243,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sk-SK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="325509328"/>
@@ -2279,7 +2285,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sk-SK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2316,7 +2322,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="sk-SK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2397,7 +2403,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sk-SK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2416,7 +2422,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>s2-s4</c:v>
+                  <c:v>SDN s2-s4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2491,7 +2497,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>s9-13</c:v>
+                  <c:v>SDN s9-13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2566,7 +2572,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>s2-s4</c:v>
+                  <c:v>OSPF s2-s4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2641,7 +2647,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>s9-13</c:v>
+                  <c:v>OSPF s9-13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2759,7 +2765,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sk-SK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="507752416"/>
@@ -2818,7 +2824,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sk-SK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="507752088"/>
@@ -2860,7 +2866,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sk-SK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2897,7 +2903,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="sk-SK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2973,7 +2979,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sk-SK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2992,7 +2998,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>s2-s4</c:v>
+                  <c:v>SDN s2-s4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3067,7 +3073,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>s9-13</c:v>
+                  <c:v>SDN s9-13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3142,7 +3148,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>s2-s4</c:v>
+                  <c:v>OSPF s2-s4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3217,7 +3223,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>s9-13</c:v>
+                  <c:v>OSPF s9-13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3335,7 +3341,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sk-SK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="459273864"/>
@@ -3394,7 +3400,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sk-SK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="459272880"/>
@@ -3436,7 +3442,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sk-SK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3473,7 +3479,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="sk-SK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6719,7 +6725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BFFB51-E441-4EFF-880D-76F05951A208}">
   <dimension ref="B1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
@@ -6737,30 +6743,30 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -7630,7 +7636,7 @@
   <dimension ref="C3:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7654,7 +7660,7 @@
   <sheetData>
     <row r="3" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -7665,7 +7671,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -7678,25 +7684,25 @@
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -7704,102 +7710,102 @@
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
       <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
       <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
-        <v>2</v>
-      </c>
       <c r="I5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
-        <v>2</v>
-      </c>
       <c r="K5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
         <v>1</v>
       </c>
-      <c r="L5" t="s">
-        <v>2</v>
-      </c>
       <c r="M5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
         <v>1</v>
       </c>
-      <c r="N5" t="s">
-        <v>2</v>
-      </c>
       <c r="O5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
         <v>1</v>
       </c>
-      <c r="P5" t="s">
-        <v>2</v>
-      </c>
       <c r="Q5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
         <v>1</v>
-      </c>
-      <c r="R5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N6" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="O6" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P6" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q6" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="R6" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.25">
